--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gast-Cckbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gast-Cckbr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,60 +525,60 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.651966</v>
+        <v>3.158628666666667</v>
       </c>
       <c r="H2">
-        <v>4.955898</v>
+        <v>9.475885999999999</v>
       </c>
       <c r="I2">
-        <v>0.5336534314804935</v>
+        <v>0.6322622710965859</v>
       </c>
       <c r="J2">
-        <v>0.5336534314804935</v>
+        <v>0.6322622710965859</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4118343333333334</v>
+        <v>0.09168033333333332</v>
       </c>
       <c r="N2">
-        <v>1.235503</v>
+        <v>0.275041</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1820807603088688</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1820807603088689</v>
       </c>
       <c r="Q2">
-        <v>0.6803363162993334</v>
+        <v>0.2895841290362222</v>
       </c>
       <c r="R2">
-        <v>6.123026846694001</v>
+        <v>2.606257161325999</v>
       </c>
       <c r="S2">
-        <v>0.5336534314804935</v>
+        <v>0.1151227950358785</v>
       </c>
       <c r="T2">
-        <v>0.5336534314804935</v>
+        <v>0.1151227950358785</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.206677666666667</v>
+        <v>3.158628666666667</v>
       </c>
       <c r="H3">
-        <v>3.620033</v>
+        <v>9.475885999999999</v>
       </c>
       <c r="I3">
-        <v>0.3898068589229692</v>
+        <v>0.6322622710965859</v>
       </c>
       <c r="J3">
-        <v>0.3898068589229692</v>
+        <v>0.6322622710965859</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,27 +620,27 @@
         <v>1.235503</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.8179192396911312</v>
       </c>
       <c r="Q3">
-        <v>0.4969512923998889</v>
+        <v>1.300831731184222</v>
       </c>
       <c r="R3">
-        <v>4.472561631599</v>
+        <v>11.707485580658</v>
       </c>
       <c r="S3">
-        <v>0.3898068589229692</v>
+        <v>0.5171394760607074</v>
       </c>
       <c r="T3">
-        <v>0.3898068589229692</v>
+        <v>0.5171394760607074</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -658,46 +658,232 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.2369346666666667</v>
+        <v>1.206677666666667</v>
       </c>
       <c r="H4">
-        <v>0.710804</v>
+        <v>3.620033</v>
       </c>
       <c r="I4">
-        <v>0.07653970959653743</v>
+        <v>0.2415405046055416</v>
       </c>
       <c r="J4">
-        <v>0.07653970959653743</v>
+        <v>0.2415405046055416</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M4">
+        <v>0.09168033333333332</v>
+      </c>
+      <c r="N4">
+        <v>0.275041</v>
+      </c>
+      <c r="O4">
+        <v>0.1820807603088688</v>
+      </c>
+      <c r="P4">
+        <v>0.1820807603088689</v>
+      </c>
+      <c r="Q4">
+        <v>0.1106286107058889</v>
+      </c>
+      <c r="R4">
+        <v>0.9956574963529998</v>
+      </c>
+      <c r="S4">
+        <v>0.04397987872396485</v>
+      </c>
+      <c r="T4">
+        <v>0.04397987872396485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G5">
+        <v>1.206677666666667</v>
+      </c>
+      <c r="H5">
+        <v>3.620033</v>
+      </c>
+      <c r="I5">
+        <v>0.2415405046055416</v>
+      </c>
+      <c r="J5">
+        <v>0.2415405046055416</v>
+      </c>
+      <c r="K5">
         <v>3</v>
       </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
         <v>0.4118343333333334</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>1.235503</v>
       </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>0.09757783049022223</v>
-      </c>
-      <c r="R4">
-        <v>0.878200474412</v>
-      </c>
-      <c r="S4">
-        <v>0.07653970959653743</v>
-      </c>
-      <c r="T4">
-        <v>0.07653970959653743</v>
+      <c r="O5">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="P5">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="Q5">
+        <v>0.4969512923998889</v>
+      </c>
+      <c r="R5">
+        <v>4.472561631599</v>
+      </c>
+      <c r="S5">
+        <v>0.1975606258815768</v>
+      </c>
+      <c r="T5">
+        <v>0.1975606258815768</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.6304506666666666</v>
+      </c>
+      <c r="H6">
+        <v>1.891352</v>
+      </c>
+      <c r="I6">
+        <v>0.1261972242978725</v>
+      </c>
+      <c r="J6">
+        <v>0.1261972242978725</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.09168033333333332</v>
+      </c>
+      <c r="N6">
+        <v>0.275041</v>
+      </c>
+      <c r="O6">
+        <v>0.1820807603088688</v>
+      </c>
+      <c r="P6">
+        <v>0.1820807603088689</v>
+      </c>
+      <c r="Q6">
+        <v>0.05779992727022221</v>
+      </c>
+      <c r="R6">
+        <v>0.520199345432</v>
+      </c>
+      <c r="S6">
+        <v>0.02297808654902548</v>
+      </c>
+      <c r="T6">
+        <v>0.02297808654902549</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.6304506666666666</v>
+      </c>
+      <c r="H7">
+        <v>1.891352</v>
+      </c>
+      <c r="I7">
+        <v>0.1261972242978725</v>
+      </c>
+      <c r="J7">
+        <v>0.1261972242978725</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.4118343333333334</v>
+      </c>
+      <c r="N7">
+        <v>1.235503</v>
+      </c>
+      <c r="O7">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="P7">
+        <v>0.8179192396911312</v>
+      </c>
+      <c r="Q7">
+        <v>0.2596412300062222</v>
+      </c>
+      <c r="R7">
+        <v>2.336771070056</v>
+      </c>
+      <c r="S7">
+        <v>0.103219137748847</v>
+      </c>
+      <c r="T7">
+        <v>0.1032191377488471</v>
       </c>
     </row>
   </sheetData>
